--- a/quotationData.xlsx
+++ b/quotationData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16B5892-02FD-4B9C-AB4F-6AD18FC944EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715003FA-50D7-4D04-88BA-D2BC857AECF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,15 +119,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价来源(quotationSource)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -197,11 +217,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -231,6 +271,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -513,40 +559,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -556,73 +603,77 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>43601</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>43616</v>
       </c>
-      <c r="F3" s="7">
-        <v>700</v>
-      </c>
       <c r="G3" s="7">
         <v>700</v>
       </c>
@@ -632,125 +683,235 @@
       <c r="I3" s="7">
         <v>700</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>700</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>115</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>8</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43601</v>
+      </c>
+      <c r="F4" s="6">
+        <v>43616</v>
+      </c>
+      <c r="G4" s="7">
+        <v>700</v>
+      </c>
+      <c r="H4" s="7">
+        <v>700</v>
+      </c>
+      <c r="I4" s="7">
+        <v>700</v>
+      </c>
+      <c r="J4" s="7">
+        <v>700</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="7">
+        <v>115</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="O4" s="7">
+        <v>8</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E5" s="6">
         <v>43601</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F5" s="6">
         <v>43616</v>
       </c>
-      <c r="F4" s="7">
-        <v>700</v>
-      </c>
-      <c r="G4" s="7">
-        <v>700</v>
-      </c>
-      <c r="H4" s="7">
-        <v>700</v>
-      </c>
-      <c r="I4" s="7">
-        <v>700</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="G5" s="7">
+        <v>700</v>
+      </c>
+      <c r="H5" s="7">
+        <v>700</v>
+      </c>
+      <c r="I5" s="7">
+        <v>700</v>
+      </c>
+      <c r="J5" s="7">
+        <v>700</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M5" s="7">
         <v>115</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="N5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="7">
         <v>8</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:16" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E6" s="6">
         <v>43601</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F6" s="6">
         <v>43616</v>
       </c>
-      <c r="F5" s="7">
-        <v>700</v>
-      </c>
-      <c r="G5" s="7">
-        <v>700</v>
-      </c>
-      <c r="H5" s="7">
-        <v>700</v>
-      </c>
-      <c r="I5" s="7">
-        <v>700</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="G6" s="7">
+        <v>800</v>
+      </c>
+      <c r="H6" s="7">
+        <v>800</v>
+      </c>
+      <c r="I6" s="7">
+        <v>800</v>
+      </c>
+      <c r="J6" s="7">
+        <v>800</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M6" s="7">
         <v>115</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="N6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="7">
         <v>8</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43601</v>
+      </c>
+      <c r="F7" s="6">
+        <v>43617</v>
+      </c>
+      <c r="G7" s="7">
+        <v>900</v>
+      </c>
+      <c r="H7" s="7">
+        <v>800</v>
+      </c>
+      <c r="I7" s="7">
+        <v>800</v>
+      </c>
+      <c r="J7" s="7">
+        <v>800</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="7">
+        <v>115</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="7">
+        <v>8</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>